--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adyma\Documents\UiPath\Aplicatii\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C54DC7-083F-4E2A-B004-F2E9FD914C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC09E03-7BE3-445B-B5B6-7F1CF85A5B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -179,12 +179,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFF4F9FA"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -214,9 +208,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -226,8 +220,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -546,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -617,7 +610,7 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
@@ -648,21 +641,21 @@
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="3:3" ht="14.25" customHeight="1"/>
@@ -1649,7 +1642,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2760,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2809,7 +2802,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adyma\Documents\UiPath\Aplicatii\CalculateClientSecurityHash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adyma\Documents\GitHub\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC09E03-7BE3-445B-B5B6-7F1CF85A5B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7352728C-3794-4071-8625-48E411D18FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -144,13 +144,13 @@
     <t>http://www.sha1-online.com/</t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/login</t>
-  </si>
-  <si>
     <t>GetOrchestratorCredentials</t>
   </si>
   <si>
     <t>SHA1</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -613,13 +613,13 @@
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -628,7 +628,7 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2801,14 +2801,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
